--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H2">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I2">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J2">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.454662909998737</v>
+        <v>0.8749903333333333</v>
       </c>
       <c r="N2">
-        <v>0.454662909998737</v>
+        <v>2.624971</v>
       </c>
       <c r="O2">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="P2">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="Q2">
-        <v>78.98195678982079</v>
+        <v>161.0530750606569</v>
       </c>
       <c r="R2">
-        <v>78.98195678982079</v>
+        <v>1449.477675545912</v>
       </c>
       <c r="S2">
-        <v>0.1365576419747355</v>
+        <v>0.1738641585406248</v>
       </c>
       <c r="T2">
-        <v>0.1365576419747355</v>
+        <v>0.1738641585406248</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H3">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I3">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J3">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.74516466488891</v>
+        <v>0.8147036666666666</v>
       </c>
       <c r="N3">
-        <v>0.74516466488891</v>
+        <v>2.444111</v>
       </c>
       <c r="O3">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="P3">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="Q3">
-        <v>129.4465901423995</v>
+        <v>149.9565489826658</v>
       </c>
       <c r="R3">
-        <v>129.4465901423995</v>
+        <v>1349.608940843992</v>
       </c>
       <c r="S3">
-        <v>0.2238096120935094</v>
+        <v>0.1618849512603701</v>
       </c>
       <c r="T3">
-        <v>0.2238096120935094</v>
+        <v>0.1618849512603701</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H4">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I4">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J4">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.935470285848349</v>
+        <v>1.586789</v>
       </c>
       <c r="N4">
-        <v>0.935470285848349</v>
+        <v>4.760367</v>
       </c>
       <c r="O4">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="P4">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="Q4">
-        <v>162.505610354803</v>
+        <v>292.0686528602693</v>
       </c>
       <c r="R4">
-        <v>162.505610354803</v>
+        <v>2628.617875742424</v>
       </c>
       <c r="S4">
-        <v>0.2809677533917099</v>
+        <v>0.3153014653493536</v>
       </c>
       <c r="T4">
-        <v>0.2809677533917099</v>
+        <v>0.3153014653493537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H5">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J5">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.454662909998737</v>
+        <v>0.8749903333333333</v>
       </c>
       <c r="N5">
-        <v>0.454662909998737</v>
+        <v>2.624971</v>
       </c>
       <c r="O5">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="P5">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="Q5">
-        <v>25.89060782283001</v>
+        <v>50.26241971379999</v>
       </c>
       <c r="R5">
-        <v>25.89060782283001</v>
+        <v>452.3617774241999</v>
       </c>
       <c r="S5">
-        <v>0.04476415243783844</v>
+        <v>0.05426058028674255</v>
       </c>
       <c r="T5">
-        <v>0.04476415243783844</v>
+        <v>0.05426058028674255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H6">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I6">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J6">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.74516466488891</v>
+        <v>0.8147036666666666</v>
       </c>
       <c r="N6">
-        <v>0.74516466488891</v>
+        <v>2.444111</v>
       </c>
       <c r="O6">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="P6">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="Q6">
-        <v>42.43312062143558</v>
+        <v>46.79934860579999</v>
       </c>
       <c r="R6">
-        <v>42.43312062143558</v>
+        <v>421.1941374522</v>
       </c>
       <c r="S6">
-        <v>0.07336570438629055</v>
+        <v>0.05052203667972355</v>
       </c>
       <c r="T6">
-        <v>0.07336570438629055</v>
+        <v>0.05052203667972355</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H7">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I7">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J7">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.935470285848349</v>
+        <v>1.586789</v>
       </c>
       <c r="N7">
-        <v>0.935470285848349</v>
+        <v>4.760367</v>
       </c>
       <c r="O7">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="P7">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="Q7">
-        <v>53.2700023867739</v>
+        <v>91.15055524259998</v>
       </c>
       <c r="R7">
-        <v>53.2700023867739</v>
+        <v>820.3549971833999</v>
       </c>
       <c r="S7">
-        <v>0.09210237641091093</v>
+        <v>0.0984011921647362</v>
       </c>
       <c r="T7">
-        <v>0.09210237641091093</v>
+        <v>0.0984011921647362</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.2052878900969</v>
+        <v>41.21033366666666</v>
       </c>
       <c r="H8">
-        <v>40.2052878900969</v>
+        <v>123.631001</v>
       </c>
       <c r="I8">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="J8">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.454662909998737</v>
+        <v>0.8749903333333333</v>
       </c>
       <c r="N8">
-        <v>0.454662909998737</v>
+        <v>2.624971</v>
       </c>
       <c r="O8">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="P8">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="Q8">
-        <v>18.27985318944843</v>
+        <v>36.05864359177455</v>
       </c>
       <c r="R8">
-        <v>18.27985318944843</v>
+        <v>324.527792325971</v>
       </c>
       <c r="S8">
-        <v>0.03160536594247997</v>
+        <v>0.0389269545076304</v>
       </c>
       <c r="T8">
-        <v>0.03160536594247997</v>
+        <v>0.0389269545076304</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.2052878900969</v>
+        <v>41.21033366666666</v>
       </c>
       <c r="H9">
-        <v>40.2052878900969</v>
+        <v>123.631001</v>
       </c>
       <c r="I9">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="J9">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.74516466488891</v>
+        <v>0.8147036666666666</v>
       </c>
       <c r="N9">
-        <v>0.74516466488891</v>
+        <v>2.444111</v>
       </c>
       <c r="O9">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="P9">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="Q9">
-        <v>29.95955987738621</v>
+        <v>33.57420994279011</v>
       </c>
       <c r="R9">
-        <v>29.95955987738621</v>
+        <v>302.167889485111</v>
       </c>
       <c r="S9">
-        <v>0.05179925919465231</v>
+        <v>0.0362448947849706</v>
       </c>
       <c r="T9">
-        <v>0.05179925919465231</v>
+        <v>0.03624489478497059</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.2052878900969</v>
+        <v>41.21033366666666</v>
       </c>
       <c r="H10">
-        <v>40.2052878900969</v>
+        <v>123.631001</v>
       </c>
       <c r="I10">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="J10">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.935470285848349</v>
+        <v>1.586789</v>
       </c>
       <c r="N10">
-        <v>0.935470285848349</v>
+        <v>4.760367</v>
       </c>
       <c r="O10">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="P10">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="Q10">
-        <v>37.61085215516411</v>
+        <v>65.39210414859632</v>
       </c>
       <c r="R10">
-        <v>37.61085215516411</v>
+        <v>588.528937337367</v>
       </c>
       <c r="S10">
-        <v>0.06502813416787294</v>
+        <v>0.07059376642584812</v>
       </c>
       <c r="T10">
-        <v>0.06502813416787294</v>
+        <v>0.07059376642584812</v>
       </c>
     </row>
   </sheetData>
